--- a/Test/testdata/Testdata_KLM.xlsx
+++ b/Test/testdata/Testdata_KLM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2FB7A0-64E5-4485-A3CB-35B9EA2B6343}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98B0E00-5366-4C47-B837-E641AC432468}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="380">
   <si>
     <t>Vraag</t>
   </si>
@@ -515,9 +515,6 @@
     <t>familyName</t>
   </si>
   <si>
-    <t>SeatNumber</t>
-  </si>
-  <si>
     <t>Amit</t>
   </si>
   <si>
@@ -1122,15 +1119,6 @@
   </si>
   <si>
     <t>A25</t>
-  </si>
-  <si>
-    <t>G54</t>
-  </si>
-  <si>
-    <t>H03</t>
-  </si>
-  <si>
-    <t>G11</t>
   </si>
   <si>
     <t>PassengerNumber</t>
@@ -1886,7 +1874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526742A6-9C9D-409A-BB91-0F7E6E50DE18}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -2147,7 +2135,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2484,13 +2472,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>110</v>
@@ -2498,10 +2486,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" t="s">
         <v>43</v>
@@ -2509,10 +2497,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" t="s">
         <v>164</v>
-      </c>
-      <c r="C3" t="s">
-        <v>165</v>
       </c>
       <c r="D3" t="s">
         <v>43</v>
@@ -2520,10 +2508,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" t="s">
         <v>166</v>
-      </c>
-      <c r="C4" t="s">
-        <v>167</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
@@ -2531,10 +2519,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" t="s">
         <v>168</v>
-      </c>
-      <c r="C5" t="s">
-        <v>169</v>
       </c>
       <c r="D5" t="s">
         <v>43</v>
@@ -2542,43 +2530,43 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" t="s">
         <v>170</v>
       </c>
-      <c r="C6" t="s">
-        <v>171</v>
-      </c>
       <c r="D6" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" t="s">
         <v>172</v>
       </c>
-      <c r="C7" t="s">
-        <v>173</v>
-      </c>
       <c r="D7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" t="s">
         <v>174</v>
       </c>
-      <c r="C8" t="s">
-        <v>175</v>
-      </c>
       <c r="D8" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" t="s">
         <v>176</v>
-      </c>
-      <c r="C9" t="s">
-        <v>177</v>
       </c>
       <c r="D9" t="s">
         <v>43</v>
@@ -2586,10 +2574,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -2597,10 +2585,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" t="s">
         <v>180</v>
-      </c>
-      <c r="C11" t="s">
-        <v>181</v>
       </c>
       <c r="D11" t="s">
         <v>43</v>
@@ -2608,10 +2596,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="B12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" t="s">
         <v>182</v>
-      </c>
-      <c r="C12" t="s">
-        <v>183</v>
       </c>
       <c r="D12" t="s">
         <v>43</v>
@@ -2619,43 +2607,43 @@
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" t="s">
         <v>184</v>
       </c>
-      <c r="C13" t="s">
-        <v>185</v>
-      </c>
       <c r="D13" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" t="s">
         <v>186</v>
       </c>
-      <c r="C14" t="s">
-        <v>187</v>
-      </c>
       <c r="D14" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" t="s">
         <v>188</v>
       </c>
-      <c r="C15" t="s">
-        <v>189</v>
-      </c>
       <c r="D15" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" t="s">
         <v>190</v>
-      </c>
-      <c r="C16" t="s">
-        <v>191</v>
       </c>
       <c r="D16" t="s">
         <v>43</v>
@@ -2663,10 +2651,10 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" t="s">
         <v>192</v>
-      </c>
-      <c r="C17" t="s">
-        <v>193</v>
       </c>
       <c r="D17" t="s">
         <v>43</v>
@@ -2674,10 +2662,10 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" t="s">
         <v>194</v>
-      </c>
-      <c r="C18" t="s">
-        <v>195</v>
       </c>
       <c r="D18" t="s">
         <v>43</v>
@@ -2685,10 +2673,10 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D19" t="s">
         <v>43</v>
@@ -2696,43 +2684,43 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D20" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D21" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D22" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D23" t="s">
         <v>43</v>
@@ -2740,10 +2728,10 @@
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D24" t="s">
         <v>43</v>
@@ -2751,10 +2739,10 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D25" t="s">
         <v>43</v>
@@ -2762,10 +2750,10 @@
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D26" t="s">
         <v>43</v>
@@ -2773,43 +2761,43 @@
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D27" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D28" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D29" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D30" t="s">
         <v>43</v>
@@ -2817,10 +2805,10 @@
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D31" t="s">
         <v>43</v>
@@ -2828,10 +2816,10 @@
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D32" t="s">
         <v>43</v>
@@ -2839,10 +2827,10 @@
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D33" t="s">
         <v>43</v>
@@ -2850,43 +2838,43 @@
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D34" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D35" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D36" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D37" t="s">
         <v>43</v>
@@ -2894,10 +2882,10 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D38" t="s">
         <v>43</v>
@@ -2905,10 +2893,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D39" t="s">
         <v>43</v>
@@ -2916,10 +2904,10 @@
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D40" t="s">
         <v>43</v>
@@ -2927,43 +2915,43 @@
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D41" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D42" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D43" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D44" t="s">
         <v>43</v>
@@ -2971,10 +2959,10 @@
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D45" t="s">
         <v>43</v>
@@ -2982,10 +2970,10 @@
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D46" t="s">
         <v>43</v>
@@ -2993,10 +2981,10 @@
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D47" t="s">
         <v>43</v>
@@ -3004,43 +2992,43 @@
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D48" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D49" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D50" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D51" t="s">
         <v>43</v>
@@ -3048,10 +3036,10 @@
     </row>
     <row r="52" spans="2:4">
       <c r="B52" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D52" t="s">
         <v>43</v>
@@ -3059,10 +3047,10 @@
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D53" t="s">
         <v>43</v>
@@ -3070,10 +3058,10 @@
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D54" t="s">
         <v>43</v>
@@ -3081,43 +3069,43 @@
     </row>
     <row r="55" spans="2:4">
       <c r="B55" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D55" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="B56" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D56" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D57" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D58" t="s">
         <v>43</v>
@@ -3125,10 +3113,10 @@
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D59" t="s">
         <v>43</v>
@@ -3136,10 +3124,10 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D60" t="s">
         <v>43</v>
@@ -3147,10 +3135,10 @@
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D61" t="s">
         <v>43</v>
@@ -3158,35 +3146,35 @@
     </row>
     <row r="62" spans="2:4">
       <c r="B62" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D62" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D63" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D64" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -3344,18 +3332,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307C40B6-A894-48AE-A1C6-CB30FD08749F}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="5" width="20.77734375" customWidth="1"/>
+    <col min="1" max="4" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>157</v>
       </c>
@@ -3368,890 +3356,698 @@
       <c r="D1" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>213</v>
       </c>
-      <c r="C2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>163</v>
       </c>
-      <c r="E2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>214</v>
       </c>
-      <c r="C3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>165</v>
       </c>
-      <c r="E3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>215</v>
       </c>
-      <c r="C4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
         <v>167</v>
       </c>
-      <c r="E4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>216</v>
       </c>
-      <c r="C5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
         <v>169</v>
       </c>
-      <c r="E5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>217</v>
       </c>
-      <c r="C6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
         <v>171</v>
       </c>
-      <c r="E6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>218</v>
       </c>
-      <c r="C7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
         <v>173</v>
       </c>
-      <c r="E7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>219</v>
       </c>
-      <c r="C8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C9" t="s">
         <v>175</v>
       </c>
-      <c r="E8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>220</v>
       </c>
-      <c r="C9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" t="s">
         <v>177</v>
       </c>
-      <c r="E9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>221</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>179</v>
       </c>
-      <c r="D10" t="s">
-        <v>178</v>
-      </c>
-      <c r="E10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>222</v>
       </c>
-      <c r="C11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
         <v>181</v>
       </c>
-      <c r="E11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>223</v>
       </c>
-      <c r="C12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s">
         <v>183</v>
       </c>
-      <c r="E12" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
         <v>224</v>
       </c>
-      <c r="C13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>185</v>
       </c>
-      <c r="E13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="D14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
         <v>225</v>
       </c>
-      <c r="C14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s">
         <v>187</v>
       </c>
-      <c r="E14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="D15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
         <v>226</v>
       </c>
-      <c r="C15" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C16" t="s">
         <v>189</v>
       </c>
-      <c r="E15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
+      <c r="D16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
         <v>227</v>
       </c>
-      <c r="C16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C17" t="s">
         <v>191</v>
       </c>
-      <c r="E16" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
+      <c r="D17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
         <v>228</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>232</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>233</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>237</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>238</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>239</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>240</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>241</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>242</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>243</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>244</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>245</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>246</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>247</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>248</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>249</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>250</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>251</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>252</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>253</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>254</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="D17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E17" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>229</v>
-      </c>
-      <c r="C18" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" t="s">
-        <v>195</v>
-      </c>
-      <c r="E18" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>230</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="E19" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>231</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="E20" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>232</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="E21" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>233</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="E22" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>234</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E23" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>235</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="E24" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>236</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="E25" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>237</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="E26" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>238</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="E27" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>239</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="E28" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="E29" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>241</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="E30" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>242</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="E31" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>256</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>257</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>258</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>259</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>260</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>261</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
         <v>243</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="E32" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>244</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="E33" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>245</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="E34" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>246</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="E35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
+      <c r="C52" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>344</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>345</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>346</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
         <v>247</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D36" s="9" t="s">
+      <c r="C56" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="E36" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>248</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="D37" s="9" t="s">
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>347</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="E37" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
         <v>249</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="D38" s="9" t="s">
+      <c r="C58" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="E38" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>250</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="D39" s="9" t="s">
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>348</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="E39" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>251</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="E40" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>252</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="D41" s="9" t="s">
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>349</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>350</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="E41" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>253</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="D42" s="9" t="s">
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>351</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D62" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="E42" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>254</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="D43" s="9" t="s">
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>352</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D64" s="9" t="s">
         <v>290</v>
-      </c>
-      <c r="E43" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>255</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E44" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="E45" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>257</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="E46" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>258</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="E47" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>259</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="E48" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>260</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="E49" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>261</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="E50" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>262</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="E51" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>244</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="E52" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>345</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="E53" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>346</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="E54" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>347</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="E55" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>248</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="E56" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>348</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="E57" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>250</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="E58" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>349</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="E59" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>350</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="E60" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>351</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="E61" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>352</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E62" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>353</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E63" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="E64" t="s">
-        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -4274,19 +4070,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>370</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4294,13 +4090,13 @@
         <v>74000017191</v>
       </c>
       <c r="B2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4308,13 +4104,13 @@
         <v>74000049602</v>
       </c>
       <c r="B3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4322,13 +4118,13 @@
         <v>74000084286</v>
       </c>
       <c r="B4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4336,13 +4132,13 @@
         <v>74000031249</v>
       </c>
       <c r="B5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C5" t="s">
         <v>378</v>
       </c>
-      <c r="C5" t="s">
-        <v>382</v>
-      </c>
       <c r="E5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4350,13 +4146,13 @@
         <v>74000055449</v>
       </c>
       <c r="B6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4364,13 +4160,13 @@
         <v>74000224676</v>
       </c>
       <c r="B7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4378,13 +4174,13 @@
         <v>74000059982</v>
       </c>
       <c r="B8" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C8" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4392,13 +4188,13 @@
         <v>74000067147</v>
       </c>
       <c r="B9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C9" t="s">
         <v>378</v>
       </c>
-      <c r="C9" t="s">
-        <v>382</v>
-      </c>
       <c r="E9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4406,13 +4202,13 @@
         <v>74000067618</v>
       </c>
       <c r="B10" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C10" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4420,13 +4216,13 @@
         <v>74000038284</v>
       </c>
       <c r="B11" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C11" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4434,13 +4230,13 @@
         <v>74000018376</v>
       </c>
       <c r="B12" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4448,13 +4244,13 @@
         <v>74000072627</v>
       </c>
       <c r="B13" t="s">
+        <v>374</v>
+      </c>
+      <c r="C13" t="s">
         <v>378</v>
       </c>
-      <c r="C13" t="s">
-        <v>382</v>
-      </c>
       <c r="E13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4462,13 +4258,13 @@
         <v>74000059294</v>
       </c>
       <c r="B14" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C14" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4476,13 +4272,13 @@
         <v>74000044726</v>
       </c>
       <c r="B15" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C15" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4490,13 +4286,13 @@
         <v>74000056907</v>
       </c>
       <c r="B16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C16" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4504,13 +4300,13 @@
         <v>74000074492</v>
       </c>
       <c r="B17" t="s">
+        <v>374</v>
+      </c>
+      <c r="C17" t="s">
         <v>378</v>
       </c>
-      <c r="C17" t="s">
-        <v>382</v>
-      </c>
       <c r="E17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4518,13 +4314,13 @@
         <v>74000042460</v>
       </c>
       <c r="B18" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C18" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4532,13 +4328,13 @@
         <v>74000039151</v>
       </c>
       <c r="B19" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C19" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4546,13 +4342,13 @@
         <v>74000027723</v>
       </c>
       <c r="B20" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C20" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4560,13 +4356,13 @@
         <v>74000057627</v>
       </c>
       <c r="B21" t="s">
+        <v>374</v>
+      </c>
+      <c r="C21" t="s">
         <v>378</v>
       </c>
-      <c r="C21" t="s">
-        <v>382</v>
-      </c>
       <c r="E21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4574,13 +4370,13 @@
         <v>74000071077</v>
       </c>
       <c r="B22" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C22" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4588,13 +4384,13 @@
         <v>74000015621</v>
       </c>
       <c r="B23" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C23" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4602,13 +4398,13 @@
         <v>74000065964</v>
       </c>
       <c r="B24" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C24" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4616,13 +4412,13 @@
         <v>74000026203</v>
       </c>
       <c r="B25" t="s">
+        <v>374</v>
+      </c>
+      <c r="C25" t="s">
         <v>378</v>
       </c>
-      <c r="C25" t="s">
-        <v>382</v>
-      </c>
       <c r="E25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4630,13 +4426,13 @@
         <v>74000224326</v>
       </c>
       <c r="B26" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C26" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4644,13 +4440,13 @@
         <v>74000015800</v>
       </c>
       <c r="B27" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C27" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4658,13 +4454,13 @@
         <v>74000052883</v>
       </c>
       <c r="B28" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C28" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4672,13 +4468,13 @@
         <v>74000062941</v>
       </c>
       <c r="B29" t="s">
+        <v>374</v>
+      </c>
+      <c r="C29" t="s">
         <v>378</v>
       </c>
-      <c r="C29" t="s">
-        <v>382</v>
-      </c>
       <c r="E29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4686,13 +4482,13 @@
         <v>74000026805</v>
       </c>
       <c r="B30" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C30" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4700,13 +4496,13 @@
         <v>74000033870</v>
       </c>
       <c r="B31" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C31" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4714,13 +4510,13 @@
         <v>74000075077</v>
       </c>
       <c r="B32" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C32" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4728,13 +4524,13 @@
         <v>74000082817</v>
       </c>
       <c r="B33" t="s">
+        <v>374</v>
+      </c>
+      <c r="C33" t="s">
         <v>378</v>
       </c>
-      <c r="C33" t="s">
-        <v>382</v>
-      </c>
       <c r="E33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4742,13 +4538,13 @@
         <v>74000016644</v>
       </c>
       <c r="B34" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C34" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4756,13 +4552,13 @@
         <v>74000015141</v>
       </c>
       <c r="B35" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C35" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4770,13 +4566,13 @@
         <v>74000010560</v>
       </c>
       <c r="B36" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C36" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -4784,13 +4580,13 @@
         <v>74000036483</v>
       </c>
       <c r="B37" t="s">
+        <v>374</v>
+      </c>
+      <c r="C37" t="s">
         <v>378</v>
       </c>
-      <c r="C37" t="s">
-        <v>382</v>
-      </c>
       <c r="E37" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4798,13 +4594,13 @@
         <v>74000099033</v>
       </c>
       <c r="B38" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C38" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -4812,13 +4608,13 @@
         <v>74000084369</v>
       </c>
       <c r="B39" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C39" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/Test/testdata/Testdata_KLM.xlsx
+++ b/Test/testdata/Testdata_KLM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98B0E00-5366-4C47-B837-E641AC432468}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11608A7F-039D-4CF9-B762-3CEEF7E0B294}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3334,7 +3334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307C40B6-A894-48AE-A1C6-CB30FD08749F}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -4059,8 +4059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A475C393-C0B2-4658-982B-D1442D34F9E0}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4619,6 +4619,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
